--- a/自动审核执行文件/快递配置.xlsx
+++ b/自动审核执行文件/快递配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25305" windowHeight="10065"/>
+    <workbookView windowWidth="26415" windowHeight="9945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人工处理" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>客服备注</t>
   </si>
@@ -65,13 +65,13 @@
     <t>[空]</t>
   </si>
   <si>
-    <t>[包含]甘肃|内蒙|宁夏|青海|新疆|西藏</t>
+    <t>[包含]甘肃|内蒙|宁夏|青海|新疆|西藏|台湾|香港|澳门</t>
   </si>
   <si>
     <t>[包含]拉杆箱</t>
   </si>
   <si>
-    <t>1&lt;%s&lt;3</t>
+    <t>1&lt;%s&lt;100</t>
   </si>
   <si>
     <t>2&lt;%s&lt;100</t>
@@ -101,46 +101,102 @@
     <t>如果备注含有多个快递内容，则以最好备注的一个为准</t>
   </si>
   <si>
+    <t>[包含]中通|百世|顺丰|圆通|韵达|邮政|德邦</t>
+  </si>
+  <si>
+    <t>客服备注指定</t>
+  </si>
+  <si>
+    <t>[包含]张建波</t>
+  </si>
+  <si>
+    <t>百世</t>
+  </si>
+  <si>
+    <t>[包含]20寸|24寸|26寸</t>
+  </si>
+  <si>
+    <t>[包含]28寸</t>
+  </si>
+  <si>
+    <t>德邦</t>
+  </si>
+  <si>
+    <t>[包含]海口</t>
+  </si>
+  <si>
+    <t>韵达</t>
+  </si>
+  <si>
+    <t>[包含]广元|宜宾</t>
+  </si>
+  <si>
+    <t>圆通</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[包含]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邵阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潮州</t>
+    </r>
+  </si>
+  <si>
     <t>中通</t>
   </si>
   <si>
-    <t>[包含]百世|顺丰|圆通|韵达|邮政|德邦</t>
-  </si>
-  <si>
-    <t>客服备注指定</t>
-  </si>
-  <si>
-    <t>[包含]张建波</t>
-  </si>
-  <si>
-    <t>百世</t>
-  </si>
-  <si>
-    <t>[包含]20寸|24寸|26寸</t>
-  </si>
-  <si>
-    <t>[包含]28寸</t>
-  </si>
-  <si>
-    <t>德邦</t>
-  </si>
-  <si>
-    <t>[包含]海口|广元|广安</t>
-  </si>
-  <si>
-    <t>韵达</t>
-  </si>
-  <si>
-    <t>[包含]邵阳</t>
-  </si>
-  <si>
-    <t>2&lt;%s&lt;3</t>
-  </si>
-  <si>
-    <t>圆通</t>
-  </si>
-  <si>
-    <t>[包含]云南|甘肃|江苏|重庆</t>
+    <t>[包含]天津|宁夏|江西|山西|江苏</t>
   </si>
   <si>
     <t>[包含]包|礼盒</t>
@@ -149,7 +205,7 @@
     <t>2&lt;%s&lt;10</t>
   </si>
   <si>
-    <t>[包含]北京|辽宁|海南|湖南|浙江|贵州</t>
+    <t>[包含]甘肃|四川|重庆|安徽|上海|浙江|陕西|黑龙江|北京|海南</t>
   </si>
   <si>
     <t>[包含]新疆|西藏</t>
@@ -164,7 +220,10 @@
     <t>打火机改卡包</t>
   </si>
   <si>
-    <t>[包含]天津|河北|吉林|黑龙江|辽宁</t>
+    <t>顺丰</t>
+  </si>
+  <si>
+    <t>[包含]天津|河北|吉林|辽宁|台湾|香港|澳门|海南</t>
   </si>
   <si>
     <t>快递名称</t>
@@ -174,9 +233,6 @@
   </si>
   <si>
     <t>同一快递两种类型的长的放前面</t>
-  </si>
-  <si>
-    <t>顺丰</t>
   </si>
   <si>
     <t>符号</t>
@@ -277,12 +333,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,7 +355,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,116 +476,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,6 +497,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF191F25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF191F25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -469,6 +538,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,6 +670,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,79 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,55 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,45 +743,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,7 +781,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,6 +800,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -783,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1306,8 +1375,8 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="16" customHeight="1" outlineLevelRow="7"/>
@@ -1432,10 +1501,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="16" customHeight="1"/>
@@ -1444,7 +1513,7 @@
     <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="12" style="8" customWidth="1"/>
-    <col min="5" max="5" width="33.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="60.125" style="8" customWidth="1"/>
     <col min="6" max="6" width="19.625" style="8" customWidth="1"/>
     <col min="7" max="7" width="4.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="8" customWidth="1"/>
@@ -1509,26 +1578,29 @@
     </row>
     <row r="3" s="8" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="4" customHeight="1" spans="4:11">
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="K4" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="4:11">
-      <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="5" customHeight="1" spans="8:11">
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="K5" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="8:11">
@@ -1539,98 +1611,92 @@
         <v>32</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="8:11">
-      <c r="H7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="7" customHeight="1" spans="6:11">
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="K7" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:11">
       <c r="F8" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="6:11">
       <c r="F9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="8:11">
-      <c r="H10" s="9"/>
-      <c r="J10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="5:11">
+      <c r="E10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="5:11">
+    <row r="11" s="8" customFormat="1" customHeight="1" spans="5:11">
       <c r="E11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>41</v>
+      <c r="H11" s="9"/>
+      <c r="J11" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" customHeight="1" spans="5:11">
+    <row r="12" customHeight="1" spans="5:11">
       <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="J12" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="K12" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="5:11">
       <c r="E13" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="5:11">
       <c r="E14" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="5:11">
-      <c r="E15" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="11:11">
       <c r="K15" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="11:11">
-      <c r="K16" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="6:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="6:9">
+      <c r="F33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" customHeight="1" spans="5:9">
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1650,15 +1716,9 @@
     <row r="37" customHeight="1" spans="5:9">
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-    </row>
-    <row r="38" customHeight="1" spans="5:9">
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1669,20 +1729,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="8.125" style="8" customWidth="1"/>
     <col min="3" max="4" width="6.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="80.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="4.375" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.875" style="8" customWidth="1"/>
-    <col min="8" max="9" width="4.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="8" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="8" customWidth="1"/>
     <col min="11" max="11" width="16.625" style="8" customWidth="1"/>
     <col min="12" max="12" width="11.875" style="8" customWidth="1"/>
@@ -1740,30 +1801,46 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="5:12">
-      <c r="E3" s="8" t="s">
-        <v>44</v>
+    <row r="3" s="8" customFormat="1" customHeight="1" spans="11:12">
+      <c r="K3" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="5:12">
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>39</v>
+    <row r="4" s="8" customFormat="1" customHeight="1" spans="8:12">
+      <c r="H4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="11:12">
-      <c r="K5" s="8" t="s">
+    <row r="5" customHeight="1" spans="5:12">
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="5:12">
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="11:12">
+      <c r="K7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1779,7 +1856,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1791,10 +1868,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1802,18 +1879,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7">
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
@@ -1821,7 +1898,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7">
         <v>9</v>
@@ -1837,7 +1914,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7">
         <v>10</v>
@@ -1845,7 +1922,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7">
         <v>11</v>
@@ -1861,7 +1938,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="7">
         <v>15</v>

--- a/自动审核执行文件/快递配置.xlsx
+++ b/自动审核执行文件/快递配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26415" windowHeight="9945" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="人工处理" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,87 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">必须是区间  如   2&lt;%s&lt;10
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必须是区间  如   2&lt;%s&lt;10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单个快递，或者多个快递用|连接</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只能是单个快递</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>客服备注</t>
   </si>
@@ -65,6 +144,9 @@
     <t>[空]</t>
   </si>
   <si>
+    <t>[包含]北京</t>
+  </si>
+  <si>
     <t>[包含]甘肃|内蒙|宁夏|青海|新疆|西藏|台湾|香港|澳门</t>
   </si>
   <si>
@@ -110,7 +192,7 @@
     <t>[包含]张建波</t>
   </si>
   <si>
-    <t>百世</t>
+    <t>百世快递</t>
   </si>
   <si>
     <t>[包含]20寸|24寸|26寸</t>
@@ -119,99 +201,31 @@
     <t>[包含]28寸</t>
   </si>
   <si>
-    <t>德邦</t>
-  </si>
-  <si>
-    <t>[包含]海口</t>
-  </si>
-  <si>
-    <t>韵达</t>
-  </si>
-  <si>
-    <t>[包含]广元|宜宾</t>
-  </si>
-  <si>
-    <t>圆通</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[包含]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广安</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邵阳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>潮州</t>
-    </r>
-  </si>
-  <si>
-    <t>中通</t>
-  </si>
-  <si>
-    <t>[包含]天津|宁夏|江西|山西|江苏</t>
-  </si>
-  <si>
-    <t>[包含]包|礼盒</t>
-  </si>
-  <si>
-    <t>2&lt;%s&lt;10</t>
-  </si>
-  <si>
-    <t>[包含]甘肃|四川|重庆|安徽|上海|浙江|陕西|黑龙江|北京|海南</t>
+    <t>[包含]皋兰县|海口|广元市|玛沁县|广州</t>
+  </si>
+  <si>
+    <t>申通快递</t>
+  </si>
+  <si>
+    <t>[包含]四川</t>
+  </si>
+  <si>
+    <t>圆通速递</t>
   </si>
   <si>
     <t>[包含]新疆|西藏</t>
   </si>
   <si>
-    <t>邮政</t>
+    <t>中国邮政-快递包裹</t>
+  </si>
+  <si>
+    <t>[包含]河北|内蒙|天津|陕西|湖南|天津|吉林|辽宁|黑龙江|河北|浙江|福建|甘肃|青海|江苏|广西|湖北|山西</t>
+  </si>
+  <si>
+    <t>中通速递</t>
+  </si>
+  <si>
+    <t>圆通速递|申通快递</t>
   </si>
   <si>
     <t>[包含]集运|转运</t>
@@ -223,7 +237,13 @@
     <t>顺丰</t>
   </si>
   <si>
-    <t>[包含]天津|河北|吉林|辽宁|台湾|香港|澳门|海南</t>
+    <t>[包含]新疆|西藏|内蒙|青海|海南|宁夏</t>
+  </si>
+  <si>
+    <t>[包含]甘南藏族自治州|甘南合作市|敦煌市</t>
+  </si>
+  <si>
+    <t>[包含]郑州</t>
   </si>
   <si>
     <t>快递名称</t>
@@ -232,9 +252,6 @@
     <t>维富友快递编码</t>
   </si>
   <si>
-    <t>同一快递两种类型的长的放前面</t>
-  </si>
-  <si>
     <t>符号</t>
   </si>
   <si>
@@ -326,6 +343,9 @@
   </si>
   <si>
     <t>字段</t>
+  </si>
+  <si>
+    <t>标黄字段留意批注</t>
   </si>
 </sst>
 </file>
@@ -338,7 +358,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +419,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -443,46 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -498,18 +518,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF191F25"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF191F25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -556,6 +568,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -635,54 +695,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +755,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,65 +851,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -852,10 +864,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,10 +885,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,7 +897,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,107 +906,107 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,6 +1032,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1373,13 +1388,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="16" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
@@ -1413,7 +1428,7 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1465,29 +1480,37 @@
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="6:8">
+    <row r="7" customHeight="1" spans="4:8">
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="7:8">
+    <row r="8" customHeight="1" spans="6:8">
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="7:8">
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1495,16 +1518,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="16" customHeight="1"/>
@@ -1513,12 +1537,13 @@
     <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="12" style="8" customWidth="1"/>
-    <col min="5" max="5" width="60.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="34.75" style="8" customWidth="1"/>
     <col min="7" max="7" width="4.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="8" customWidth="1"/>
     <col min="9" max="9" width="20" style="8" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="31.25" style="8" customWidth="1"/>
     <col min="12" max="12" width="45.625" style="8" customWidth="1"/>
     <col min="13" max="16382" width="12.25" style="8" customWidth="1"/>
     <col min="16383" max="16384" width="12.25" style="8"/>
@@ -1535,28 +1560,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>23</v>
+      <c r="K1" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>8</v>
@@ -1564,189 +1589,170 @@
     </row>
     <row r="2" s="8" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="4:11">
       <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="8:11">
       <c r="H5" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="8:11">
       <c r="H6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="6:11">
+      <c r="K6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="5:11">
+      <c r="E7" s="10"/>
       <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:11">
-      <c r="F8" s="8" t="s">
+    <row r="8" customHeight="1" spans="5:11">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="6:11">
-      <c r="F9" s="8" t="s">
+    <row r="9" customHeight="1" spans="5:11">
+      <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:11">
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1" customHeight="1" spans="5:11">
-      <c r="E11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="J11" s="8" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="11:11">
+      <c r="K11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="5:11">
-      <c r="E12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="5:11">
-      <c r="E13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="5:11">
-      <c r="E14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="11:11">
-      <c r="K15" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="6:9">
-      <c r="F33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" customHeight="1" spans="5:9">
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" customHeight="1" spans="5:9">
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" customHeight="1" spans="5:9">
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" customHeight="1" spans="5:9">
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+    </row>
+    <row r="21" customHeight="1" spans="9:9">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="9:9">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="9:9">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="9:9">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" customHeight="1" spans="9:9">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" customHeight="1" spans="9:9">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="29" customHeight="1" spans="6:9">
+      <c r="F29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" customHeight="1" spans="5:9">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" customHeight="1" spans="5:9">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" customHeight="1" spans="5:9">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" customHeight="1" spans="5:9">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="8.125" style="8" customWidth="1"/>
     <col min="3" max="4" width="6.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="80.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="43.375" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.875" style="8" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="8" customWidth="1"/>
     <col min="9" max="9" width="4.375" style="8" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="8" customWidth="1"/>
     <col min="11" max="11" width="16.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="8" customWidth="1"/>
     <col min="13" max="13" width="12.125" style="8" customWidth="1"/>
     <col min="14" max="16383" width="12.25" style="8" customWidth="1"/>
     <col min="16384" max="16384" width="12.25" style="8"/>
@@ -1763,28 +1769,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>23</v>
+      <c r="K1" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>7</v>
@@ -1795,102 +1801,141 @@
     </row>
     <row r="2" s="8" customFormat="1" customHeight="1" spans="7:12">
       <c r="G2" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" customHeight="1" spans="11:12">
       <c r="K3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1" customHeight="1" spans="8:12">
-      <c r="H4" s="8" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" customHeight="1" spans="5:12">
+      <c r="E4" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="5:12">
-      <c r="E5" s="8" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="5" s="8" customFormat="1" customHeight="1" spans="8:12">
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="L5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="5:12">
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="6:12">
+      <c r="F7" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="11:12">
       <c r="K7" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="11:12">
+      <c r="K8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="6:12">
+      <c r="F9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="8:8">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="8:8">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="8:8">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="8:8">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="8:8">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" customHeight="1" spans="8:8">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" customHeight="1" spans="8:8">
+      <c r="H26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
@@ -1898,50 +1943,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +1993,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1972,71 +2009,71 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -2044,13 +2081,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
@@ -2058,13 +2095,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -2075,10 +2112,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
@@ -2089,18 +2126,21 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2120,7 +2160,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2130,12 +2170,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -2145,7 +2185,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -2155,7 +2195,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
